--- a/penjualan.xlsx
+++ b/penjualan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Skripsi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\roti-woke\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F9035FD-6729-4812-904E-00889F2C16E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91610765-265E-40DB-AC5A-5B1B0F85E263}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="3690" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{269E88E6-B4DF-44AB-AAB4-C75426F72F46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="8" xr2:uid="{269E88E6-B4DF-44AB-AAB4-C75426F72F46}"/>
   </bookViews>
   <sheets>
     <sheet name="Januari" sheetId="1" r:id="rId1"/>
@@ -436,7 +436,7 @@
   <dimension ref="A1:C94"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2438,10 +2438,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A67FBF87-7BC0-435F-B0A0-CB096F554CD3}">
-  <dimension ref="A1:G94"/>
+  <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I88" sqref="I88"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2449,7 +2449,7 @@
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>44256</v>
       </c>
@@ -2470,12 +2470,8 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="G2">
-        <f>SUM(B2:B94)</f>
-        <v>2871</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>44256</v>
       </c>
@@ -2486,7 +2482,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>44256</v>
       </c>
@@ -2497,7 +2493,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>44257</v>
       </c>
@@ -2508,7 +2504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>44257</v>
       </c>
@@ -2519,7 +2515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>44257</v>
       </c>
@@ -2530,7 +2526,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>44258</v>
       </c>
@@ -2541,7 +2537,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>44258</v>
       </c>
@@ -2552,7 +2548,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>44258</v>
       </c>
@@ -2563,7 +2559,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>44259</v>
       </c>
@@ -2574,7 +2570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>44259</v>
       </c>
@@ -2585,7 +2581,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>44259</v>
       </c>
@@ -2596,7 +2592,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>44260</v>
       </c>
@@ -2607,7 +2603,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>44260</v>
       </c>
@@ -2618,7 +2614,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>44260</v>
       </c>
@@ -3496,7 +3492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9F463C6-0010-40B9-A174-DB8076E06E18}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
@@ -4515,7 +4511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D8D4D95-CCE5-4B98-A21D-78F56A935CA5}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A82" workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
@@ -5567,7 +5563,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A355E7D-6CEA-492A-BBF2-AF1EF18F5EA9}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A61" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -6586,7 +6582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48EB39F8-CC3F-4435-BE26-ED5C394E2FAB}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
@@ -7638,7 +7634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{65C54ADD-E469-4407-8FDD-6AA0CF2C1229}">
   <dimension ref="A1:C94"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
@@ -8690,7 +8686,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{95BDB61F-A090-48BD-9C67-C0A88D0465E4}">
   <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
